--- a/feedback.xlsx
+++ b/feedback.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,14 +471,29 @@
           <t>INTAKE: Thank you for the information. In most states, when a person dies without a will, their spouse and children are the first in line to inherit. Since you are an only child and your mother is still alive, the property may be divided between you two. However, the exact laws can vary by state. Could you please tell me which state you are in?</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
+      <c r="B3" t="n">
+        <v>8</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>Pretty good question</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>INTAKE: Hello Moha, how can I assist you with your legal concerns today?</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Yes too early to ask</t>
         </is>
       </c>
     </row>
